--- a/Mechanics/NDE_CubeSat_v2/Cubesat/BOM_Screws_Nuts.xlsx
+++ b/Mechanics/NDE_CubeSat_v2/Cubesat/BOM_Screws_Nuts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan12\Documents\Razer\Gady_Soubory\Gadas_VUT_FEKT\MPC-EKT\2. Semestr\NDE\NDE_CubeSat\Cubesat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan12\Documents\Razer\Gady_Soubory\Gadas_VUT_FEKT\MPC-EKT\2. Semestr\NDE\NDE_CubeSat_v2\Cubesat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A4C30-9AA9-4A22-9FC3-86AE26ADD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5E0039-77B6-42D2-B0B4-924DA9B17EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{53EC0971-3488-444F-B1D9-22FF4C749E9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Part</t>
   </si>
@@ -60,13 +60,19 @@
     <t>DIN 934 M2</t>
   </si>
   <si>
-    <t>DIN 965 M2x6</t>
-  </si>
-  <si>
-    <t>philips šroub se zápustnou hlavou</t>
-  </si>
-  <si>
-    <t>DIN 912 M3x8</t>
+    <t>DIN 912 M3x10</t>
+  </si>
+  <si>
+    <t>DIN 912 M2x6</t>
+  </si>
+  <si>
+    <t>DIN 912 M2x14</t>
+  </si>
+  <si>
+    <t>DIN 912 M3x26</t>
+  </si>
+  <si>
+    <t>take</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E2449-4F35-4E97-A08D-AE8469B9CDCC}">
-  <dimension ref="C3:E8"/>
+  <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +436,7 @@
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -440,8 +446,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -451,49 +460,92 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
